--- a/biology/Botanique/Vératre/Vératre.xlsx
+++ b/biology/Botanique/Vératre/Vératre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9ratre</t>
+          <t>Vératre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Veratrum
 Les vératres (genre Veratrum) sont des plantes herbacées vivaces, vigoureuses de la famille des Melanthiaceae anciennement placées dans les Liliaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9ratre</t>
+          <t>Vératre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vératre est cité (sans distinction d'espèce) dans le Dictionnaire patois-français du département de l'Aveyron comme insecticide externe pour le bétail : « Laver un veau ou tout autre animal avec une décoction de racine de vératre pour tuer la vermine. ».
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V%C3%A9ratre</t>
+          <t>Vératre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,15 +557,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (23 mai 2021)[1] :
-Veratrum album L. - vératre blanc ou hellébore blanc ou fausse gentiane, Varaire, Véraire, Vérine[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (23 mai 2021) :
+Veratrum album L. - vératre blanc ou hellébore blanc ou fausse gentiane, Varaire, Véraire, Vérine
 Veratrum californicum Durand
 Veratrum fimbriatum A. Gray
 Veratrum insolitum Jeps.
 Veratrum latifolium (Desr.) Zomlefer
-Veratrum nigrum L. - vératre noir[2]
+Veratrum nigrum L. - vératre noir
 Veratrum parviflorum Michx.
 Veratrum virginicum (L.) W.T. Aiton
 Veratrum viride Aiton - vératre vert
